--- a/InputFiles/TC02_Canine_Filter_Study-UC01_Biobank-NotApplicable.xlsx
+++ b/InputFiles/TC02_Canine_Filter_Study-UC01_Biobank-NotApplicable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sohilz2\Commons_Automation\InputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8F72D14-24A9-4CCF-A336-629569223CED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAE11665-FF3A-43B2-81BA-7B3C07FC7FE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16354" yWindow="-4860" windowWidth="33120" windowHeight="18120" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
@@ -66,8 +66,24 @@
     <t>TC02_Canine_Filter_Study-UC01_Biobank-NotApplicable_WebData.xlsx</t>
   </si>
   <si>
+    <t>MATCH (p:program)&lt;--(s:study)&lt;-[*]-(c:case)&lt;--(demo:demographic) (c)&lt;--(r:registration)
+OPTIONAL MATCH (samp:sample)--&gt;(c)
+OPTIONAL MATCH (diag:diagnosis)--&gt;(c)
+OPTIONAL MATCH (f:file)-[*]-&gt;(c)
+OPTIONAL MATCH (sf:file)--&gt;(s)
+WITH DISTINCT f, sf, samp AS samp, c, demo, diag, s, p
+  WHERE s.clinical_study_designation IN ['UC01']  and r.registration_origin = "Not Applicable"
+RETURN  
+    count(distinct p) AS Programs,
+    count(distinct s) AS Studies,
+    count(distinct c) AS Cases,
+    count(distinct samp) AS Samples,
+    count(distinct f) AS `Case Files`,
+    count(distinct sf) AS `Study Files`</t>
+  </si>
+  <si>
     <t>MATCH (s:study)&lt;-[*]-(c:case)&lt;--(demo:demographic)
-MATCH (c)&lt;--(diag:diagnosis)
+MATCH (c)&lt;--(diag:diagnosis) (c)&lt;--(r:registration)
 OPTIONAL MATCH (samp:sample)--&gt;(c)
 OPTIONAL MATCH (co:cohort)&lt;-[*]-(c)
  WITH DISTINCT c, s, demo, diag, co, demo.patient_age_at_enrollment AS age, demo.weight as weight
@@ -88,8 +104,8 @@
 limit 100</t>
   </si>
   <si>
-    <t>MATCH (s:study)&lt;-[*]-(c:case)&lt;--(demo:demographic), (samp:sample)--&gt;(c)&lt;--(diag:diagnosis) 
-WHERE s.clinical_study_designation IN ['UC01']  r.registration_origin = "Not Applicable"
+    <t>MATCH (s:study)&lt;-[*]-(c:case)&lt;--(demo:demographic) (c)&lt;--(r:registration), (samp:sample)--&gt;(c)&lt;--(diag:diagnosis) 
+WHERE s.clinical_study_designation IN ['UC01']  and r.registration_origin = "Not Applicable"
 WITH DISTINCT samp AS samp, c, demo, diag
 RETURN  coalesce(samp.sample_id, '') AS `Sample ID`, 
         coalesce(c.case_id, '') AS `Case ID`, 
@@ -108,10 +124,10 @@
   </si>
   <si>
     <t>MATCH (f:file)--&gt;(parent)
-MATCH (f)-[*]-&gt;(c:case)&lt;--(demo:demographic)
+MATCH (f)-[*]-&gt;(c:case)&lt;--(demo:demographic)(c)&lt;--(r:registration)
 MATCH (diag:diagnosis)--&gt;(c)
 MATCH (s:study)&lt;--(c)
-WHERE s.clinical_study_designation IN ['UC01']  r.registration_origin = "Not Applicable"
+WHERE s.clinical_study_designation IN ['UC01']  and r.registration_origin = "Not Applicable"
 OPTIONAL MATCH (f)-[*]-&gt;(samp:sample)
 WITH
         DISTINCT f, parent, c, demo, diag, s, samp,
@@ -142,8 +158,8 @@
   <si>
     <t>MATCH (f:file)--&gt;(s:study)
 WHERE s.clinical_study_designation IN ['UC01'] and  r.registration_origin = "Not Applicable"
-MATCH (s)&lt;--(c:case)&lt;--(diag:diagnosis)
-MATCH (c)&lt;--(demo:demographic)
+MATCH (s)&lt;--(c:case)&lt;--(diag:diagnosis)(c)&lt;--(r:registration)
+MATCH (c)&lt;--(demo:demographic) 
 WITH
         DISTINCT f, c, demo, diag, s,
         ['Bytes', 'KB', 'MB', 'GB', 'TB'] AS units,
@@ -166,22 +182,6 @@
   coalesce(s.clinical_study_designation,'') AS `Study Code`
   order by 'File Name' asc
   limit 100</t>
-  </si>
-  <si>
-    <t>MATCH (p:program)&lt;--(s:study)&lt;-[*]-(c:case)&lt;--(demo:demographic)
-OPTIONAL MATCH (samp:sample)--&gt;(c)
-OPTIONAL MATCH (diag:diagnosis)--&gt;(c)
-OPTIONAL MATCH (f:file)-[*]-&gt;(c)
-OPTIONAL MATCH (sf:file)--&gt;(s)
-WITH DISTINCT f, sf, samp AS samp, c, demo, diag, s, p
-  WHERE s.clinical_study_designation IN ['UC01']  r.registration_origin = "Not Applicable"
-RETURN  
-    count(distinct p) AS Programs,
-    count(distinct s) AS Studies,
-    count(distinct c) AS Cases,
-    count(distinct samp) AS Samples,
-    count(distinct f) AS `Case Files`,
-    count(distinct sf) AS `Study Files`</t>
   </si>
 </sst>
 </file>
@@ -554,7 +554,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -588,10 +588,10 @@
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
@@ -600,15 +600,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -622,10 +622,10 @@
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
@@ -639,10 +639,10 @@
         <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>
